--- a/output/Equipment.xlsx
+++ b/output/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Index</t>
   </si>
   <si>
-    <t xml:space="preserve">Камера аналог 2 мп(Sony)</t>
+    <t xml:space="preserve">Камера аналог 2 мп</t>
   </si>
   <si>
     <t xml:space="preserve">Камера аналог 5 мп</t>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Жесткий диск 8 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок бесперебойного птания</t>
   </si>
 </sst>
 </file>
@@ -231,11 +234,11 @@
   </sheetPr>
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -579,6 +582,17 @@
       </c>
       <c r="C31" s="0" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
